--- a/template.xlsx
+++ b/template.xlsx
@@ -1481,10 +1481,14 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q36"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="10.125"/>
+    <col min="10" max="10" width="10.125"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -2618,7 +2622,7 @@
         <v>95</v>
       </c>
       <c r="H26" s="3">
-        <v>1269749</v>
+        <v>126974</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>95</v>
